--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2519333.171326783</v>
+        <v>2594862.840991588</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665967</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471856.057926979</v>
+        <v>9471856.057926981</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>199.0074215892093</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>101.1385955046876</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.5756411391281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>150.6273198171887</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.3367469372602</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.55095684449122</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>281.6126679114864</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>185.0693145447556</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>385.9024753127745</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.08467608327369</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.6533314034043</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385017</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498007</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701305</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784687</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560533</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.831980181937</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>134.78685608927</v>
+        <v>122.215175154457</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113105</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.831980181937</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5598899221766</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>217.9981815644965</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365907</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520945</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.35146980185879</v>
+        <v>117.9242040559343</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633773</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985771</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238277</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181937</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>46.8233122123976</v>
+        <v>166.4935684633773</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>109.941259831722</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985771</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>92.57136887833586</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>131.4813549397307</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>124.133551578214</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.2842800309013</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4191841734657</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>28.59221822913083</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>94.36518395657814</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051986</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498007</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784722</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560533</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986001</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>92.83103086675089</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.08917415054665</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>25.55230115929235</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>36.84806229728085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>94.16481274941241</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1328.817756940316</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>959.8552399999044</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.8552399999044</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>574.0669874016601</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306105</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>532.5980335608502</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>770.5436705110326</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>770.5436705110326</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>770.5436705110326</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>359.557765721425</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907094</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1156.75737613363</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4656,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.6519168570174</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>252.6519168570174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>94.90354428954751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>94.90354428954751</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005475</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005475</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005475</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.6519168570174</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>941.2608351981287</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C8" t="n">
-        <v>941.2608351981287</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="D8" t="n">
-        <v>941.2608351981287</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y8" t="n">
-        <v>941.2608351981287</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103785</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="C10" t="n">
-        <v>229.3976778824716</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="D10" t="n">
-        <v>79.28103847013585</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,64 +5029,64 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277023</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341657</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653861</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.2212943649431</v>
+        <v>1096.47522658413</v>
       </c>
       <c r="C13" t="n">
-        <v>678.2851114370362</v>
+        <v>927.5390436562232</v>
       </c>
       <c r="D13" t="n">
-        <v>528.1684720247005</v>
+        <v>777.4224042438874</v>
       </c>
       <c r="E13" t="n">
-        <v>380.2553784423073</v>
+        <v>629.5093106614943</v>
       </c>
       <c r="F13" t="n">
-        <v>233.365430944397</v>
+        <v>482.6193631635839</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2212943649431</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.2212943649431</v>
+        <v>1278.123691414369</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003434</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405189</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155818</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805398</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.7065213774116</v>
+        <v>358.8683222506735</v>
       </c>
       <c r="C16" t="n">
-        <v>819.7703384495047</v>
+        <v>358.8683222506735</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7703384495047</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="E16" t="n">
-        <v>671.8572448671116</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="F16" t="n">
-        <v>524.9672973692012</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="G16" t="n">
-        <v>356.7919756890218</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1278.71608715942</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>989.2989171224599</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>761.3093662244428</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.7065213774116</v>
+        <v>540.516787080913</v>
       </c>
     </row>
     <row r="17">
@@ -5498,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383751</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383751</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383751</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383751</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.392413140465</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954967</v>
+        <v>531.397718270632</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954967</v>
+        <v>531.397718270632</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.0479578003561</v>
+        <v>376.444190748265</v>
       </c>
       <c r="C22" t="n">
-        <v>256.0479578003561</v>
+        <v>376.444190748265</v>
       </c>
       <c r="D22" t="n">
-        <v>256.0479578003561</v>
+        <v>376.444190748265</v>
       </c>
       <c r="E22" t="n">
-        <v>256.0479578003561</v>
+        <v>376.444190748265</v>
       </c>
       <c r="F22" t="n">
-        <v>256.0479578003561</v>
+        <v>376.444190748265</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>208.2688690680859</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>208.2688690680859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924196</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765216</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765216</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>786.0822064765216</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>558.0926555785045</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305959</v>
+        <v>558.0926555785045</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4169.284890254081</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C25" t="n">
-        <v>4169.284890254081</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>4019.168250841745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>3871.255157259352</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>3871.255157259352</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3703.079835579173</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3552.661827127116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1366.106821123831</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1142.321405913337</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>1142.321405913337</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.72593422785</v>
+        <v>887.6369177074498</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.72593422785</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="X25" t="n">
-        <v>4571.72593422785</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y25" t="n">
-        <v>4350.93335508432</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.6737565393106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>634.6737565393106</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>484.5571171269748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>816.3222213695503</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.3222213695503</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6451,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>790.3885509487287</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>502.7260840420536</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C34" t="n">
-        <v>358.8683222506741</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1470.035242043629</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1470.035242043629</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1246.249826833135</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>957.121188046693</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.156678913841</v>
+        <v>957.121188046693</v>
       </c>
       <c r="W34" t="n">
-        <v>1133.156678913841</v>
+        <v>957.121188046693</v>
       </c>
       <c r="X34" t="n">
-        <v>905.1671280158234</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y34" t="n">
-        <v>684.3745488722933</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3855.008409413974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3855.008409413974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3704.891770001639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3704.891770001639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3704.891770001639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3704.891770001639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3554.473761549582</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281175</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4326.074044281175</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4326.074044281175</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4036.656874244214</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4036.656874244214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4036.656874244214</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615588</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7211,13 +7213,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>822.1480540508779</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C40" t="n">
-        <v>822.1480540508779</v>
+        <v>638.4104048698118</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>488.2937654574761</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>488.2937654574761</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>341.4038179595657</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>1050.137604948895</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X40" t="n">
-        <v>822.1480540508779</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y40" t="n">
-        <v>822.1480540508779</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>269.9174441696026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>269.9174441696026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>123.0274966716923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>123.0274966716923</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819383</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.0340835819383</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1172.567366824712</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.567366824712</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X46" t="n">
-        <v>944.5778159266949</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229638</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>219.9778004203351</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53204524670008</v>
+        <v>277.6717966208121</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>158.8724419039331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
-        <v>403.7628319612157</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>62.91120742583814</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.6026921294541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>230.7151863772035</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>4.376943252282217e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.70671237410755</v>
+        <v>44.27839330890038</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633773</v>
       </c>
       <c r="H16" t="n">
-        <v>2.353938445359518</v>
+        <v>148.9138283675359</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.920809983603</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985771</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>34.1394617593312</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.4805103800785</v>
+        <v>61.9077761260027</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675359</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365907</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890369</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520945</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182121</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465689</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G22" t="n">
-        <v>119.67025625098</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675359</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.4779856325496894</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037925</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.1376433238277</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365907</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520945</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.84787658593613</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>66.43945504387253</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>22.3004110683552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>69.23871830568973</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>24.82763692516212</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>81.37213417466197</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>16.05406150769386</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>73.66253759662669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037925</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058389</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238277</v>
       </c>
       <c r="W40" t="n">
-        <v>238.4338241860443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>123.3615272082438</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>215.2895810265472</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277354</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.5104277348</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.5104277359</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196782</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="O2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768945</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.985577106708661e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.305762111769582e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007902</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007902</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007591</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007569</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007896</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007487</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007533</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871651</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871652</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422702</v>
+        <v>-225488.72284227</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722743</v>
+        <v>364479.1563722745</v>
       </c>
       <c r="D6" t="n">
         <v>364479.1563722745</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194234</v>
+        <v>-58071.95746194069</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149542</v>
+        <v>467088.0790149538</v>
       </c>
       <c r="G6" t="n">
+        <v>467088.0790149531</v>
+      </c>
+      <c r="H6" t="n">
+        <v>467088.0790149522</v>
+      </c>
+      <c r="I6" t="n">
         <v>467088.079014954</v>
       </c>
-      <c r="H6" t="n">
-        <v>467088.0790149539</v>
-      </c>
-      <c r="I6" t="n">
-        <v>467088.0790149539</v>
-      </c>
       <c r="J6" t="n">
-        <v>290664.8598223609</v>
+        <v>290664.8598223611</v>
       </c>
       <c r="K6" t="n">
+        <v>467088.0790149537</v>
+      </c>
+      <c r="L6" t="n">
+        <v>467088.079014954</v>
+      </c>
+      <c r="M6" t="n">
+        <v>332287.0637811171</v>
+      </c>
+      <c r="N6" t="n">
         <v>467088.0790149536</v>
       </c>
-      <c r="L6" t="n">
-        <v>467088.0790149542</v>
-      </c>
-      <c r="M6" t="n">
-        <v>332287.0637811168</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>467088.079014954</v>
       </c>
-      <c r="O6" t="n">
-        <v>467088.0790149539</v>
-      </c>
       <c r="P6" t="n">
-        <v>467088.0790149539</v>
+        <v>467088.079014954</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054540987</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26790,16 +26792,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990157</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155.6756200314737</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>305.7374502370238</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>17.65046194477887</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.00901221296667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>263.1568502036063</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.9011917187933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>4.649002344045783</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>4.669206330491363</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>221.8067311969559</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3354633432791161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>121.3492865632955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>11.65647085564657</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,7 +28247,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28260,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.020654005974728e-11</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28296,7 +28298,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.219114195322618e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
     </row>
     <row r="23">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-2.726202831631237e-12</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30381,7 +30383,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.775050959565416e-11</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -30426,19 +30428,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.580107264492099e-13</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734292</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415655</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>427.0712153518598</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782248</v>
+        <v>484.7652115523362</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>408.1301468599573</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655658</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299108</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799288</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789728</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056039</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187503</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>714.1872090116819</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>345.2749096669463</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,16 +37162,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>201.6157249145282</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,19 +37870,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>563.9097597752163</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
